--- a/TONER/TN 01/TN01.xlsx
+++ b/TONER/TN 01/TN01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ngoc Nguyen\Desktop\PROJECT\SHANKS\CRU\PACKING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ngoc Nguyen\Desktop\PROJECT\SHANKS\TONER\TN 01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -336,10 +336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B5"/>
+  <dimension ref="B3:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -354,6 +354,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
